--- a/medicine/Mort/Nécropole_grecque/Nécropole_grecque.xlsx
+++ b/medicine/Mort/Nécropole_grecque/Nécropole_grecque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_grecque</t>
+          <t>Nécropole_grecque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’origine du mot nécropole est bien connue, il est construit à partir des deux termes grecs nekro et polis, il signifie littéralement « cité des morts »[1]. Le terme "necropolis" aurait été cité pour la première fois dans Géographie de Strabon pour parler de la "ville des morts" de la cité d'Alexandrie en Égypte[2].
-De façon générale, il s'agit d'un groupe de sépultures, monumental ou non, rassemblées comme les maisons et les édifices constituant une cité. Le terme est principalement utilisé pour désigner des groupes de tombes datant de la Préhistoire ou de l’Antiquité[3]. Cependant, le terme peut aussi s'appliquer pour les sépultures datant des époques ultérieures. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’origine du mot nécropole est bien connue, il est construit à partir des deux termes grecs nekro et polis, il signifie littéralement « cité des morts ». Le terme "necropolis" aurait été cité pour la première fois dans Géographie de Strabon pour parler de la "ville des morts" de la cité d'Alexandrie en Égypte.
+De façon générale, il s'agit d'un groupe de sépultures, monumental ou non, rassemblées comme les maisons et les édifices constituant une cité. Le terme est principalement utilisé pour désigner des groupes de tombes datant de la Préhistoire ou de l’Antiquité. Cependant, le terme peut aussi s'appliquer pour les sépultures datant des époques ultérieures. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_grecque</t>
+          <t>Nécropole_grecque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le monde grec antique, la nécropole prend de multiples formes et ne peut se réduire à un modèle unique. Une nécropole ne correspond pas forcément à un ensemble funéraire organisé car ce terme grec désigne par convention des structures funéraires diverses. De manière générale, il s'agissait plutôt d'un espace ouvert à tous les passants, dans la nature. Durant l'Antiquité, une nécropole était conçue pour être remarquée dans un but commémoratif pour le défunt. Cependant, une nécropole pouvait être constituée de plusieurs tombes isolées, et non pas forcément d'un ensemble de tombes, comme c'est le cas en Attique ou en Asie Mineure[4]. Ainsi, malgré son étymologie désignant "cité des morts", le terme "nécropole", a une définition bien plus ambiguë.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le monde grec antique, la nécropole prend de multiples formes et ne peut se réduire à un modèle unique. Une nécropole ne correspond pas forcément à un ensemble funéraire organisé car ce terme grec désigne par convention des structures funéraires diverses. De manière générale, il s'agissait plutôt d'un espace ouvert à tous les passants, dans la nature. Durant l'Antiquité, une nécropole était conçue pour être remarquée dans un but commémoratif pour le défunt. Cependant, une nécropole pouvait être constituée de plusieurs tombes isolées, et non pas forcément d'un ensemble de tombes, comme c'est le cas en Attique ou en Asie Mineure. Ainsi, malgré son étymologie désignant "cité des morts", le terme "nécropole", a une définition bien plus ambiguë.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_grecque</t>
+          <t>Nécropole_grecque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Localisation par rapport aux habitations
-De manière générale, les nécropoles grecques sont hors les murs de la cité. Les tombes se concentrent au-delà des portes, près de carrefours routiers et le long des diverses routes qui partaient vers la chôra[5].    
-Localisation des nécropoles dans le monde grec antique
-Cimetière du Céramique (Athènes)
+          <t>Localisation par rapport aux habitations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De manière générale, les nécropoles grecques sont hors les murs de la cité. Les tombes se concentrent au-delà des portes, près de carrefours routiers et le long des diverses routes qui partaient vers la chôra.    
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nécropole_grecque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_grecque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Localisation des nécropoles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Localisation des nécropoles dans le monde grec antique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière du Céramique (Athènes)
 Nécropole de Rhénée (Délos)
 Nécropole de Derveni (Macédoine)
 Nécropole d'Ágios Athanásios (Macédoine)
@@ -557,33 +611,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole_grecque</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropole_grecque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_grecque</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Monumentalisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La richesse d'une nécropole est significative du niveau de vie du défunt et de sa famille au moment de sa mort, ainsi que de l'ensemble de la communauté. La richesse se matérialise par l'apparence plus ou moins travaillée du monument funéraire, mais aussi par le contenu de la tombe. L'étude du mobilier des tombes permets aujourd'hui d'identifier des regroupements familiaux. Les nécropoles grecques sont encombrées de multiples objets et édifices, dont les marqueurs de tombes (naiskoi, stèles, vases, etc.) qui signalent la présence des tombes sous terre et permettaient de gérer la nécropole[6]. Dans certains cas, on peut parler d'une véritable monumentalisation des nécropoles tant les édifices sont nombreux. Pour exemple, certaines grandes familles influentes à l'époque antique ont créé des sortes de mini nécropoles afin d'étaler la puissance et la continuité de leur famille, comme sur l'Île de Rhénée vers la fin du IIe/début du Ier siècle. Cependant, l’idée de monumentalisation est devenue rapidement secondaire et le terme de "nécropole" désigne simplement aujourd’hui tout grand ensemble de sépultures antiques[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La richesse d'une nécropole est significative du niveau de vie du défunt et de sa famille au moment de sa mort, ainsi que de l'ensemble de la communauté. La richesse se matérialise par l'apparence plus ou moins travaillée du monument funéraire, mais aussi par le contenu de la tombe. L'étude du mobilier des tombes permets aujourd'hui d'identifier des regroupements familiaux. Les nécropoles grecques sont encombrées de multiples objets et édifices, dont les marqueurs de tombes (naiskoi, stèles, vases, etc.) qui signalent la présence des tombes sous terre et permettaient de gérer la nécropole. Dans certains cas, on peut parler d'une véritable monumentalisation des nécropoles tant les édifices sont nombreux. Pour exemple, certaines grandes familles influentes à l'époque antique ont créé des sortes de mini nécropoles afin d'étaler la puissance et la continuité de leur famille, comme sur l'Île de Rhénée vers la fin du IIe/début du Ier siècle. Cependant, l’idée de monumentalisation est devenue rapidement secondaire et le terme de "nécropole" désigne simplement aujourd’hui tout grand ensemble de sépultures antiques
 </t>
         </is>
       </c>
